--- a/biology/Zoologie/Dipoena_tiro/Dipoena_tiro.xlsx
+++ b/biology/Zoologie/Dipoena_tiro/Dipoena_tiro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipoena tiro est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipoena tiro est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Venezuela dans l'État d'Aragua et au Brésil dans les États d'Amazonas, du Roraima, du Ceará, du Sergipe, de Bahia, du Tocantins, du Mato Grosso, du Minas Gerais, de Rio de Janeiro, de São Paulo, du Paraná et de Santa Catarina[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Venezuela dans l'État d'Aragua et au Brésil dans les États d'Amazonas, du Roraima, du Ceará, du Sergipe, de Bahia, du Tocantins, du Mato Grosso, du Minas Gerais, de Rio de Janeiro, de São Paulo, du Paraná et de Santa Catarina,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 2,2 mm et le mâle paratype 1,9 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 2,2 mm et le mâle paratype 1,9 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Levi, 1963 : American spiders of the genera Audifia, Euryopis and Dipoena (Araneae: Theridiidae). Bulletin of the Museum of Comparative Zoology, vol. 129, no 2, p. 121-185 (texte intégral).</t>
         </is>
